--- a/testData/TestData.xlsx
+++ b/testData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jatin\Desktop\AT_Batch_March_2022\javaModule\PhoenixAutomationFramework\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E888C82-76B4-40F5-BE14-E63D95854CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266F7DFF-0A0F-410B-A383-7B1B1382BE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6194BB7-1123-4921-8E07-AD8A7F26BC50}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>userName</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>iamfd</t>
+  </si>
+  <si>
+    <t>iamsup</t>
+  </si>
+  <si>
+    <t>iamqc</t>
+  </si>
+  <si>
+    <t>iameng</t>
   </si>
 </sst>
 </file>
@@ -397,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46DE8AE-D7E5-4BA8-83F7-2CE9828C3190}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,6 +427,30 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
